--- a/tests.xlsx
+++ b/tests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Preconditions</t>
   </si>
@@ -130,12 +130,18 @@
   <si>
     <t>Chrome</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +161,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -299,7 +314,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +342,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -632,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +751,9 @@
       <c r="H7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -760,7 +778,9 @@
       <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -785,7 +805,9 @@
       <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
